--- a/va_facility_data_2025-02-20/Chippewa Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Chippewa%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Chippewa Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Chippewa%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd717c98346204fac827e4c3a9d5aa942"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf481a4a71d2840d89e9e7bdb37912380"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdfc4adb75d6f42bfbc4f86d135279629"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1dbd318e368240b4babf344d607dbd33"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0182044de12c414abbb0a24e2f0b001e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra95ca4bfa58d4aa098594399bf74a0e6"/>
   </x:sheets>
 </x:workbook>
 </file>
